--- a/Financials/Yearly/ACER_YR_FIN.xlsx
+++ b/Financials/Yearly/ACER_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F713C3-36B9-4D76-BD36-F8E6A5D4EAA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACER" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>ACER</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,59 +689,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -714,26 +752,29 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>2900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1300</v>
       </c>
       <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+      <c r="I8" s="3">
+        <v>1300</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -758,9 +799,12 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -785,9 +829,12 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -799,35 +846,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E12" s="3">
         <v>8700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3300</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,63 +903,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
       </c>
       <c r="H15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I15" s="3">
         <v>300</v>
       </c>
       <c r="J15" s="3">
+        <v>300</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,35 +977,39 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E17" s="3">
         <v>13900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6000</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -953,26 +1017,29 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14400</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,8 +1051,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -996,104 +1064,116 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1118,9 +1198,12 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1318,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,9 +1408,12 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1320,50 +1424,56 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1594,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E41" s="3">
         <v>15600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7100</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,9 +1651,12 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1554,9 +1681,12 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1566,78 +1696,87 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>600</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E45" s="3">
         <v>900</v>
       </c>
       <c r="F45" s="3">
+        <v>900</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E46" s="3">
         <v>16500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7200</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1662,9 +1801,12 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1672,26 +1814,29 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
         <v>3100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1300</v>
       </c>
       <c r="I48" s="3">
         <v>1300</v>
       </c>
       <c r="J48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1699,11 +1844,11 @@
         <v>7800</v>
       </c>
       <c r="E49" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F49" s="3">
         <v>400</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1716,9 +1861,12 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,9 +1921,12 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1783,23 +1937,26 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E54" s="3">
         <v>24400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8300</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,19 +2042,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>700</v>
       </c>
       <c r="G57" s="3">
         <v>700</v>
@@ -1899,14 +2064,17 @@
         <v>700</v>
       </c>
       <c r="I57" s="3">
+        <v>700</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1931,63 +2099,72 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2007,14 +2184,17 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2024,24 +2204,27 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2224,11 +2426,11 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>12100</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-153300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-141300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-126300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-109600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-100700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E76" s="3">
         <v>22300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7200</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,8 +2735,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2512,26 +2745,29 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
       </c>
       <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,8 +2959,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2714,26 +2969,29 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>1000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,8 +3093,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2852,9 +3120,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,36 +3210,42 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E100" s="3">
         <v>26900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>28400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8600</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2987,34 +3270,40 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E102" s="3">
         <v>13800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>23100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3300</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/ACER_YR_FIN.xlsx
+++ b/Financials/Yearly/ACER_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F713C3-36B9-4D76-BD36-F8E6A5D4EAA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="ACER" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,7 +709,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,7 +739,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -804,7 +769,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,7 +799,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -848,7 +813,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -878,7 +843,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,7 +873,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -938,7 +903,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -968,7 +933,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,7 +944,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1009,7 +974,7 @@
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1039,7 +1004,7 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,7 +1018,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1083,7 +1048,7 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1113,7 +1078,7 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1143,7 +1108,7 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1173,7 +1138,7 @@
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,7 +1168,7 @@
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,7 +1198,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1263,7 +1228,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1293,7 +1258,7 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,7 +1378,7 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1443,7 +1408,7 @@
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1473,7 +1438,7 @@
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,7 +1468,7 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1533,12 +1498,12 @@
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,7 +1561,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1626,7 +1591,7 @@
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1656,7 +1621,7 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1686,7 +1651,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1716,7 +1681,7 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1746,7 +1711,7 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1776,7 +1741,7 @@
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1806,7 +1771,7 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1836,7 +1801,7 @@
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1866,7 +1831,7 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,7 +1891,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1956,7 +1921,7 @@
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,7 +1951,7 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2016,7 +1981,7 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,7 +2009,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2074,7 +2039,7 @@
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2104,7 +2069,7 @@
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2134,7 +2099,7 @@
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2164,7 +2129,7 @@
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2194,7 +2159,7 @@
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2224,7 +2189,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,7 +2279,7 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2344,7 +2309,7 @@
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,7 +2443,7 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2508,7 +2473,7 @@
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,7 +2563,7 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2628,7 +2593,7 @@
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,7 +2658,7 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2723,7 +2688,7 @@
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,7 +2702,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2767,7 +2732,7 @@
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,7 +2882,7 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2947,7 +2912,7 @@
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,7 +2926,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2991,7 +2956,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,7 +3016,7 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3081,7 +3046,7 @@
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,7 +3060,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3125,7 +3090,7 @@
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,7 +3180,7 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3245,7 +3210,7 @@
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3275,7 +3240,7 @@
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
